--- a/medicine/Maladies infectieuses/Incendie_de_l'hôpital_de_Nassiriya/Incendie_de_l'hôpital_de_Nassiriya.xlsx
+++ b/medicine/Maladies infectieuses/Incendie_de_l'hôpital_de_Nassiriya/Incendie_de_l'hôpital_de_Nassiriya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incendie_de_l%27h%C3%B4pital_de_Nassiriya</t>
+          <t>Incendie_de_l'hôpital_de_Nassiriya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'incendie de l'hôpital de Nassiriya est un incendie survenu le 12 juillet 2021 dans le service d'isolement COVID-19 de l'hôpital universitaire d'Al-Hussein à Nassiriya, dans le district de Nassiriya (en), dans le gouvernorat de Dhi Qar, en Irak. L'incendie a fait au moins 92 morts et 100 autres personnes ont été blessées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incendie_de_l%27h%C3%B4pital_de_Nassiriya</t>
+          <t>Incendie_de_l'hôpital_de_Nassiriya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois mois auparavant, une nouvelle salle a été construite pouvant accueillir 70 lits à l'hôpital universitaire Al-Hussein de Nassiriya. Après des années de violence, la plupart du système de santé irakien a été caractérisé comme étant dans de mauvaises conditions.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incendie_de_l%27h%C3%B4pital_de_Nassiriya</t>
+          <t>Incendie_de_l'hôpital_de_Nassiriya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Incendie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 12 juillet 2021, un incendie s'est déclaré dans une installation de quarantaine COVID-19, à l'hôpital Al-Hussein de la ville de Nassiriya. Un médecin de l'hôpital qui a parlé à Reuters sous couvert d'anonymat, a suggéré que l'hôpital manquait de mesures de sécurité telles qu'une alarme incendie ou un système de gicleurs. Des rapports ont montré que l'incendie a été déclenché par un câble électrique défectueux, exacerbé par des bouteilles d'oxygène qui ont peut-être explosé.
 </t>
